--- a/Travelicious Restaurant Data.xlsx
+++ b/Travelicious Restaurant Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tothemoon/Clients/Travelicious and Travellers Cavern/Business Forecasting/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5EBD8FD-0BCF-AA41-9103-F8F3A2D41A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822F8DFA-32CB-704B-AA80-A1E1C5770B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="1000" windowWidth="27640" windowHeight="15580" xr2:uid="{A9F63F80-A1D0-6A44-B225-19EFC06B72B6}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,12 +81,20 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Abadi Extra Light"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Abadi Extra Light"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Display"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="6">
@@ -154,25 +162,25 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="17" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -512,7 +520,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -528,7 +536,7 @@
     <col min="10" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
